--- a/Dane/Procedury.csv.xlsx
+++ b/Dane/Procedury.csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HP\Documents\Moje\Zadania\Praca magisterska\Projekt-magisterski\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9260F2C-21F9-44AD-AB64-7CD0DAAED221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB02EE6-6FF5-45E0-A6A8-31C6718B2BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{796892D4-35F4-4CC8-8B3E-EFECC9069746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Lp.</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Chirurgirczne leczenie urazu</t>
+  </si>
+  <si>
+    <t>Triaż</t>
+  </si>
+  <si>
+    <t>P(0.1)</t>
   </si>
 </sst>
 </file>
@@ -660,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC0BD65-0D4A-4C48-A6F8-DD09ADCEDC62}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,18 +709,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -722,24 +728,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -753,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -764,10 +770,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -778,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -792,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -806,10 +812,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -820,10 +826,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -834,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,97 +868,97 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,41 +966,41 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,41 +1008,41 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,24 +1050,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
@@ -1072,10 +1078,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>21</v>
@@ -1086,10 +1092,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
@@ -1100,38 +1106,38 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>21</v>
@@ -1142,10 +1148,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
@@ -1156,54 +1162,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>21</v>
       </c>
     </row>
